--- a/PerfBoard Schematic .xlsx
+++ b/PerfBoard Schematic .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Perf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>+</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t xml:space="preserve">H1- </t>
+  </si>
+  <si>
+    <t>9V1</t>
+  </si>
+  <si>
+    <t>GRND1</t>
+  </si>
+  <si>
+    <t>9V2</t>
+  </si>
+  <si>
+    <t>GRND2</t>
   </si>
 </sst>
 </file>
@@ -622,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1503,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,9 +1534,15 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1542,9 +1560,15 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
